--- a/01. Description code in course.xlsx
+++ b/01. Description code in course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\02. Coursera\04.IBM_Generative_A_ Engineering_Professional_Certificate\07.Python_in_data_analyst\IBM_Python_in_data_analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBCA2C5-E6BB-472A-B3CC-1CA8FED2E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF482AF-DF16-4F0A-9A48-7B332C3B702E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="2760" windowWidth="15420" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21465" yWindow="1980" windowWidth="15420" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/01. Description code in course.xlsx
+++ b/01. Description code in course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\02. Coursera\04.IBM_Generative_A_ Engineering_Professional_Certificate\07.Python_in_data_analyst\IBM_Python_in_data_analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF482AF-DF16-4F0A-9A48-7B332C3B702E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252649AE-A9E5-42EF-B8ED-09A558BE420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21465" yWindow="1980" windowWidth="15420" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11700" yWindow="1905" windowWidth="14325" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,12 +183,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="C50" authorId="1" shapeId="0" xr:uid="{9BE8E2C5-1F48-48F8-900D-36262AF73386}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+mean = df["normalize=losses"].mean()
+df["normalize-losses"].replace(np.nan, mean)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
   <si>
     <t>Pandas</t>
   </si>
@@ -566,6 +591,12 @@
   </si>
   <si>
     <t>the index parameter in the to_csv method controls whether the row index of the dataframe is written to the output CSV file</t>
+  </si>
+  <si>
+    <t>men()</t>
+  </si>
+  <si>
+    <t>calculation mean value in object</t>
   </si>
 </sst>
 </file>
@@ -934,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1540,6 +1571,17 @@
         <v>125</v>
       </c>
     </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/01. Description code in course.xlsx
+++ b/01. Description code in course.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\02. Coursera\04.IBM_Generative_A_ Engineering_Professional_Certificate\07.Python_in_data_analyst\IBM_Python_in_data_analyst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\02. Coursera\04.IBM_Generative_A_ Engineering_Professional_Certificate\07.Python_in_data_analyst\IBM_Python_in_data_analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5C1993-2C1B-4255-BBCF-5F16E9039BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC654D1-4050-401D-BC5B-D743B3A8F62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="509">
   <si>
     <t>Pandas</t>
   </si>
@@ -8715,12 +8715,2501 @@
       <t>: Tên của biến độc lập, được dùng để chú thích trên biểu đồ.</t>
     </r>
   </si>
+  <si>
+    <t>Splitting data for training and testing</t>
+  </si>
+  <si>
+    <t>The process involves first separating the target attribute from the rest of the data. Treat the target attribute as the output and the rest of the data as input. Now split the input and output datasets into training and testing subsets.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">model_selection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000088"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> train_test_split</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. y_data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'target_attribute'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. x_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>df</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'target_attribute'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>axis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y_test </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> train_test_split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> test_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> random_state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cross validation score</t>
+  </si>
+  <si>
+    <r>
+      <t>1. from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">model_selection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000088"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cross_val_score</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">linear_model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000088"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LinearRegression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. lre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LinearRegression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Rcross</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cross_val_score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'attribute_1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>y_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>5. # n indicates number of times, or folds, for which the cross validation is to be done</t>
+  </si>
+  <si>
+    <r>
+      <t>6. Mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Rcross</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7. Std_dev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Rcross</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>std</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>Cross validation prediction</t>
+  </si>
+  <si>
+    <t>Use a cross validated model to create prediction of the output.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">model_selection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000088"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cross_val_predict</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. yhat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cross_val_predict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'attribute_1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ridge Regression and Prediction</t>
+  </si>
+  <si>
+    <t>To create a better fitting polynomial regression model, like , one that avoids overfitting to the training data, we use the Ridge regression model with a parameter alpha that is used to modify the effect of higher-order parameters on the model prediction.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">linear_model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000088"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ridge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PolynomialFeatures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>degree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> x_train_pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fit_transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'attribute_1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'attribute_2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>...]])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. x_test_pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fit_transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'attribute_1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'attribute_2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,...]])</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. RigeModel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ridge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>alpha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. RigeModel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_train_pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y_train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. yhat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RigeModel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>predict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test_pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Grid Search</t>
+  </si>
+  <si>
+    <t>Use Grid Search to find the correct alpha value for which the Ridge regression model gives the best performance. It further uses cross-validation to create a more refined model.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">model_selection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000088"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GridSearchCV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sklearn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">linear_model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000088"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ridge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'alpha'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>...]}]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. RR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Ridge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. Grid1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GridSearchCV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>RR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> parameters1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF006666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Grid1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'attribute_1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'attribute_2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>...]],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6. BestRR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF660066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Grid1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>best_estimator_</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7. BestRR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>x_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'attribute_1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF008800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'attribute_2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>...]],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y_test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Without sufficient data, you go for cross validation, which involves creating different subsets of training and testing data multiple times and evaluating performance across all of them using the R2 value.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8857,6 +11346,25 @@
       <color rgb="FFCF8E6D"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="4"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF212529"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -9038,7 +11546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9154,24 +11662,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9219,6 +11709,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9232,13 +11725,70 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9586,20 +12136,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G280"/>
+  <dimension ref="A1:G339"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="133.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="7" width="17.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="133.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.26171875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.83984375" customWidth="1"/>
+    <col min="6" max="7" width="17.83984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9616,7 +12166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9656,7 +12206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -9676,7 +12226,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="28.8">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -9696,7 +12246,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7" ht="57.6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -9980,7 +12530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45">
+    <row r="31" spans="1:4" ht="28.8">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -10060,7 +12610,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -10148,7 +12698,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -10214,7 +12764,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="25.5">
+    <row r="52" spans="1:3" ht="24.6">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -10247,7 +12797,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="25.5">
+    <row r="55" spans="1:3" ht="24.6">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -10280,7 +12830,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="75.75" thickBot="1">
+    <row r="58" spans="1:3" ht="72.3" thickBot="1">
       <c r="B58" s="4" t="s">
         <v>142</v>
       </c>
@@ -10288,7 +12838,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1">
+    <row r="59" spans="1:3" ht="16.5" thickBot="1">
       <c r="A59" s="5" t="s">
         <v>144</v>
       </c>
@@ -10300,10 +12850,10 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="68" t="s">
         <v>147</v>
       </c>
       <c r="C60" s="6">
@@ -10311,38 +12861,38 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
       <c r="C62" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
+    <row r="64" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="65" t="s">
         <v>152</v>
       </c>
       <c r="C65" s="11">
@@ -10350,85 +12900,85 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
+    <row r="69" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
       <c r="C69" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="68" t="s">
         <v>156</v>
       </c>
       <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="69"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="69"/>
       <c r="C73" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
       <c r="C74" s="9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="69"/>
       <c r="C75" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
+    <row r="76" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
       <c r="C76" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="65" t="s">
         <v>161</v>
       </c>
       <c r="C77" s="17">
@@ -10436,114 +12986,114 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="66"/>
       <c r="C79" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A80" s="41"/>
-      <c r="B80" s="41"/>
+    <row r="80" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A80" s="67"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="19" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="42" t="s">
+      <c r="A81" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="68" t="s">
         <v>165</v>
       </c>
       <c r="C81" s="6"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="69"/>
       <c r="C82" s="7"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="69"/>
       <c r="C83" s="7"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
       <c r="C84" s="7"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="69"/>
       <c r="C85" s="7"/>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
       <c r="C86" s="7"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="69"/>
       <c r="C87" s="9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
       <c r="C88" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
+      <c r="A89" s="69"/>
+      <c r="B89" s="69"/>
       <c r="C89" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
       <c r="C90" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="69"/>
       <c r="C91" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
       <c r="C92" s="20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A93" s="44"/>
-      <c r="B93" s="44"/>
+    <row r="93" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
       <c r="C93" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="39" t="s">
+      <c r="A94" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="65" t="s">
         <v>173</v>
       </c>
       <c r="C94" s="17">
@@ -10551,43 +13101,43 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="66"/>
       <c r="C95" s="18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A96" s="41"/>
-      <c r="B96" s="41"/>
+    <row r="96" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A96" s="67"/>
+      <c r="B96" s="67"/>
       <c r="C96" s="19" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="42" t="s">
+      <c r="A97" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="B97" s="42" t="s">
+      <c r="B97" s="68" t="s">
         <v>176</v>
       </c>
       <c r="C97" s="6"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="69"/>
       <c r="C98" s="7"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="69"/>
+      <c r="B99" s="69"/>
       <c r="C99" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
+    <row r="100" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
       <c r="C100" s="21" t="s">
         <v>178</v>
       </c>
@@ -10655,7 +13205,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75">
+    <row r="107" spans="1:3" ht="15.6">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -10743,7 +13293,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" thickBot="1">
+    <row r="115" spans="1:3" ht="14.7" thickBot="1">
       <c r="A115" t="s">
         <v>196</v>
       </c>
@@ -10755,10 +13305,10 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A116" s="42" t="s">
+      <c r="A116" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="B116" s="42" t="s">
+      <c r="B116" s="68" t="s">
         <v>211</v>
       </c>
       <c r="C116" s="29">
@@ -10766,24 +13316,24 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="43"/>
-      <c r="B117" s="43"/>
+      <c r="A117" s="69"/>
+      <c r="B117" s="69"/>
       <c r="C117" s="30" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A118" s="44"/>
-      <c r="B118" s="44"/>
+    <row r="118" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
       <c r="C118" s="31" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="39" t="s">
+      <c r="A119" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="B119" s="39" t="s">
+      <c r="B119" s="65" t="s">
         <v>214</v>
       </c>
       <c r="C119" s="17">
@@ -10791,24 +13341,24 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="40"/>
-      <c r="B120" s="40"/>
+      <c r="A120" s="66"/>
+      <c r="B120" s="66"/>
       <c r="C120" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A121" s="41"/>
-      <c r="B121" s="41"/>
+    <row r="121" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A121" s="67"/>
+      <c r="B121" s="67"/>
       <c r="C121" s="19" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="42" t="s">
+      <c r="A122" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="B122" s="42" t="s">
+      <c r="B122" s="68" t="s">
         <v>217</v>
       </c>
       <c r="C122" s="6">
@@ -10816,38 +13366,38 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="43"/>
-      <c r="B123" s="43"/>
+      <c r="A123" s="69"/>
+      <c r="B123" s="69"/>
       <c r="C123" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="43"/>
-      <c r="B124" s="43"/>
+      <c r="A124" s="69"/>
+      <c r="B124" s="69"/>
       <c r="C124" s="32" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="43"/>
-      <c r="B125" s="43"/>
+      <c r="A125" s="69"/>
+      <c r="B125" s="69"/>
       <c r="C125" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A126" s="44"/>
-      <c r="B126" s="44"/>
+    <row r="126" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A126" s="70"/>
+      <c r="B126" s="70"/>
       <c r="C126" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="39" t="s">
+      <c r="A127" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="B127" s="39" t="s">
+      <c r="B127" s="65" t="s">
         <v>221</v>
       </c>
       <c r="C127" s="11">
@@ -10855,38 +13405,38 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="40"/>
-      <c r="B128" s="40"/>
+      <c r="A128" s="66"/>
+      <c r="B128" s="66"/>
       <c r="C128" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="40"/>
-      <c r="B129" s="40"/>
+      <c r="A129" s="66"/>
+      <c r="B129" s="66"/>
       <c r="C129" s="33" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="40"/>
-      <c r="B130" s="40"/>
+      <c r="A130" s="66"/>
+      <c r="B130" s="66"/>
       <c r="C130" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A131" s="41"/>
-      <c r="B131" s="41"/>
+    <row r="131" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A131" s="67"/>
+      <c r="B131" s="67"/>
       <c r="C131" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="42" t="s">
+      <c r="A132" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="B132" s="42" t="s">
+      <c r="B132" s="68" t="s">
         <v>225</v>
       </c>
       <c r="C132" s="6">
@@ -10894,38 +13444,38 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="43"/>
-      <c r="B133" s="43"/>
+      <c r="A133" s="69"/>
+      <c r="B133" s="69"/>
       <c r="C133" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="43"/>
-      <c r="B134" s="43"/>
+      <c r="A134" s="69"/>
+      <c r="B134" s="69"/>
       <c r="C134" s="32" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="43"/>
-      <c r="B135" s="43"/>
+      <c r="A135" s="69"/>
+      <c r="B135" s="69"/>
       <c r="C135" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A136" s="44"/>
-      <c r="B136" s="44"/>
+    <row r="136" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A136" s="70"/>
+      <c r="B136" s="70"/>
       <c r="C136" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="39" t="s">
+      <c r="A137" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="65" t="s">
         <v>228</v>
       </c>
       <c r="C137" s="17">
@@ -10933,21 +13483,21 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="40"/>
-      <c r="B138" s="40"/>
+      <c r="A138" s="66"/>
+      <c r="B138" s="66"/>
       <c r="C138" s="18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A139" s="41"/>
-      <c r="B139" s="41"/>
+    <row r="139" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A139" s="67"/>
+      <c r="B139" s="67"/>
       <c r="C139" s="19" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="66">
-      <c r="A140" s="42" t="s">
+    <row r="140" spans="1:3" ht="61.2">
+      <c r="A140" s="68" t="s">
         <v>230</v>
       </c>
       <c r="B140" s="22" t="s">
@@ -10957,8 +13507,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="82.5">
-      <c r="A141" s="43"/>
+    <row r="141" spans="1:3" ht="61.2">
+      <c r="A141" s="69"/>
       <c r="B141" s="23" t="s">
         <v>232</v>
       </c>
@@ -10966,88 +13516,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="16.5">
-      <c r="A142" s="43"/>
+    <row r="142" spans="1:3" ht="15.3">
+      <c r="A142" s="69"/>
       <c r="B142" s="23"/>
       <c r="C142" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="16.5">
-      <c r="A143" s="43"/>
+    <row r="143" spans="1:3" ht="15.3">
+      <c r="A143" s="69"/>
       <c r="B143" s="23"/>
       <c r="C143" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16.5">
-      <c r="A144" s="43"/>
+    <row r="144" spans="1:3" ht="15.3">
+      <c r="A144" s="69"/>
       <c r="B144" s="23"/>
       <c r="C144" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="16.5">
-      <c r="A145" s="43"/>
+    <row r="145" spans="1:3" ht="15.3">
+      <c r="A145" s="69"/>
       <c r="B145" s="23"/>
       <c r="C145" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="16.5">
-      <c r="A146" s="43"/>
+    <row r="146" spans="1:3" ht="15.3">
+      <c r="A146" s="69"/>
       <c r="B146" s="23"/>
       <c r="C146" s="9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="16.5">
-      <c r="A147" s="43"/>
+    <row r="147" spans="1:3" ht="15.3">
+      <c r="A147" s="69"/>
       <c r="B147" s="23"/>
       <c r="C147" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="16.5">
-      <c r="A148" s="43"/>
+    <row r="148" spans="1:3" ht="15.3">
+      <c r="A148" s="69"/>
       <c r="B148" s="23"/>
       <c r="C148" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="16.5">
-      <c r="A149" s="43"/>
+    <row r="149" spans="1:3" ht="15.3">
+      <c r="A149" s="69"/>
       <c r="B149" s="23"/>
       <c r="C149" s="9" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16.5">
-      <c r="A150" s="43"/>
+    <row r="150" spans="1:3" ht="15.3">
+      <c r="A150" s="69"/>
       <c r="B150" s="23"/>
       <c r="C150" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="16.5">
-      <c r="A151" s="43"/>
+    <row r="151" spans="1:3" ht="15.3">
+      <c r="A151" s="69"/>
       <c r="B151" s="23"/>
       <c r="C151" s="20" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A152" s="44"/>
+    <row r="152" spans="1:3" ht="15.6" thickBot="1">
+      <c r="A152" s="70"/>
       <c r="B152" s="24"/>
       <c r="C152" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="39" t="s">
+      <c r="A153" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="65" t="s">
         <v>240</v>
       </c>
       <c r="C153" s="11">
@@ -11055,38 +13605,38 @@
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="40"/>
-      <c r="B154" s="40"/>
+      <c r="A154" s="66"/>
+      <c r="B154" s="66"/>
       <c r="C154" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="40"/>
-      <c r="B155" s="40"/>
+      <c r="A155" s="66"/>
+      <c r="B155" s="66"/>
       <c r="C155" s="14" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="40"/>
-      <c r="B156" s="40"/>
+      <c r="A156" s="66"/>
+      <c r="B156" s="66"/>
       <c r="C156" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A157" s="41"/>
-      <c r="B157" s="41"/>
+    <row r="157" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A157" s="67"/>
+      <c r="B157" s="67"/>
       <c r="C157" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="42" t="s">
+      <c r="A158" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="B158" s="42" t="s">
+      <c r="B158" s="68" t="s">
         <v>244</v>
       </c>
       <c r="C158" s="6">
@@ -11094,38 +13644,38 @@
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="43"/>
-      <c r="B159" s="43"/>
+      <c r="A159" s="69"/>
+      <c r="B159" s="69"/>
       <c r="C159" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="43"/>
-      <c r="B160" s="43"/>
+      <c r="A160" s="69"/>
+      <c r="B160" s="69"/>
       <c r="C160" s="32" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="43"/>
-      <c r="B161" s="43"/>
+      <c r="A161" s="69"/>
+      <c r="B161" s="69"/>
       <c r="C161" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A162" s="44"/>
-      <c r="B162" s="44"/>
+    <row r="162" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A162" s="70"/>
+      <c r="B162" s="70"/>
       <c r="C162" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="39" t="s">
+      <c r="A163" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="B163" s="39" t="s">
+      <c r="B163" s="65" t="s">
         <v>248</v>
       </c>
       <c r="C163" s="11">
@@ -11133,42 +13683,42 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="40"/>
-      <c r="B164" s="40"/>
+      <c r="A164" s="66"/>
+      <c r="B164" s="66"/>
       <c r="C164" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="40"/>
-      <c r="B165" s="40"/>
+      <c r="A165" s="66"/>
+      <c r="B165" s="66"/>
       <c r="C165" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="40"/>
-      <c r="B166" s="40"/>
+      <c r="A166" s="66"/>
+      <c r="B166" s="66"/>
       <c r="C166" s="13" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="40"/>
-      <c r="B167" s="40"/>
+      <c r="A167" s="66"/>
+      <c r="B167" s="66"/>
       <c r="C167" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A168" s="41"/>
-      <c r="B168" s="41"/>
+    <row r="168" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A168" s="67"/>
+      <c r="B168" s="67"/>
       <c r="C168" s="34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" thickBot="1"/>
-    <row r="170" spans="1:3" ht="15.75" thickBot="1">
+    <row r="169" spans="1:3" ht="14.7" thickBot="1"/>
+    <row r="170" spans="1:3" ht="16.5" thickBot="1">
       <c r="A170" s="5" t="s">
         <v>252</v>
       </c>
@@ -11180,10 +13730,10 @@
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="42" t="s">
+      <c r="A171" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="B171" s="42" t="s">
+      <c r="B171" s="68" t="s">
         <v>254</v>
       </c>
       <c r="C171" s="6">
@@ -11191,38 +13741,38 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="43"/>
-      <c r="B172" s="43"/>
+      <c r="A172" s="69"/>
+      <c r="B172" s="69"/>
       <c r="C172" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="43"/>
-      <c r="B173" s="43"/>
+      <c r="A173" s="69"/>
+      <c r="B173" s="69"/>
       <c r="C173" s="32" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="43"/>
-      <c r="B174" s="43"/>
+      <c r="A174" s="69"/>
+      <c r="B174" s="69"/>
       <c r="C174" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A175" s="44"/>
-      <c r="B175" s="44"/>
+    <row r="175" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A175" s="70"/>
+      <c r="B175" s="70"/>
       <c r="C175" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A176" s="39" t="s">
+      <c r="A176" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="B176" s="39" t="s">
+      <c r="B176" s="65" t="s">
         <v>258</v>
       </c>
       <c r="C176" s="11">
@@ -11230,52 +13780,52 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="40"/>
-      <c r="B177" s="40"/>
+      <c r="A177" s="66"/>
+      <c r="B177" s="66"/>
       <c r="C177" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="40"/>
-      <c r="B178" s="40"/>
+      <c r="A178" s="66"/>
+      <c r="B178" s="66"/>
       <c r="C178" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="40"/>
-      <c r="B179" s="40"/>
+      <c r="A179" s="66"/>
+      <c r="B179" s="66"/>
       <c r="C179" s="14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="40"/>
-      <c r="B180" s="40"/>
+      <c r="A180" s="66"/>
+      <c r="B180" s="66"/>
       <c r="C180" s="14" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="40"/>
-      <c r="B181" s="40"/>
+      <c r="A181" s="66"/>
+      <c r="B181" s="66"/>
       <c r="C181" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A182" s="41"/>
-      <c r="B182" s="41"/>
+    <row r="182" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A182" s="67"/>
+      <c r="B182" s="67"/>
       <c r="C182" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="42" t="s">
+      <c r="A183" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="B183" s="42" t="s">
+      <c r="B183" s="68" t="s">
         <v>263</v>
       </c>
       <c r="C183" s="29">
@@ -11283,24 +13833,24 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="43"/>
-      <c r="B184" s="43"/>
+      <c r="A184" s="69"/>
+      <c r="B184" s="69"/>
       <c r="C184" s="30" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A185" s="44"/>
-      <c r="B185" s="44"/>
+    <row r="185" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A185" s="70"/>
+      <c r="B185" s="70"/>
       <c r="C185" s="31" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="39" t="s">
+      <c r="A186" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="B186" s="39" t="s">
+      <c r="B186" s="65" t="s">
         <v>266</v>
       </c>
       <c r="C186" s="11">
@@ -11308,38 +13858,38 @@
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="40"/>
-      <c r="B187" s="40"/>
+      <c r="A187" s="66"/>
+      <c r="B187" s="66"/>
       <c r="C187" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="40"/>
-      <c r="B188" s="40"/>
+      <c r="A188" s="66"/>
+      <c r="B188" s="66"/>
       <c r="C188" s="14" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="40"/>
-      <c r="B189" s="40"/>
+      <c r="A189" s="66"/>
+      <c r="B189" s="66"/>
       <c r="C189" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A190" s="41"/>
-      <c r="B190" s="41"/>
+    <row r="190" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A190" s="67"/>
+      <c r="B190" s="67"/>
       <c r="C190" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="42" t="s">
+      <c r="A191" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="B191" s="42" t="s">
+      <c r="B191" s="68" t="s">
         <v>270</v>
       </c>
       <c r="C191" s="6">
@@ -11347,52 +13897,52 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="43"/>
-      <c r="B192" s="43"/>
+      <c r="A192" s="69"/>
+      <c r="B192" s="69"/>
       <c r="C192" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="43"/>
-      <c r="B193" s="43"/>
+      <c r="A193" s="69"/>
+      <c r="B193" s="69"/>
       <c r="C193" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="43"/>
-      <c r="B194" s="43"/>
+      <c r="A194" s="69"/>
+      <c r="B194" s="69"/>
       <c r="C194" s="32" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="43"/>
-      <c r="B195" s="43"/>
+      <c r="A195" s="69"/>
+      <c r="B195" s="69"/>
       <c r="C195" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="43"/>
-      <c r="B196" s="43"/>
+      <c r="A196" s="69"/>
+      <c r="B196" s="69"/>
       <c r="C196" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A197" s="44"/>
-      <c r="B197" s="44"/>
+    <row r="197" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A197" s="70"/>
+      <c r="B197" s="70"/>
       <c r="C197" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="39" t="s">
+      <c r="A198" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="B198" s="39" t="s">
+      <c r="B198" s="65" t="s">
         <v>274</v>
       </c>
       <c r="C198" s="11">
@@ -11400,52 +13950,52 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="40"/>
-      <c r="B199" s="40"/>
+      <c r="A199" s="66"/>
+      <c r="B199" s="66"/>
       <c r="C199" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="40"/>
-      <c r="B200" s="40"/>
+      <c r="A200" s="66"/>
+      <c r="B200" s="66"/>
       <c r="C200" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="40"/>
-      <c r="B201" s="40"/>
+      <c r="A201" s="66"/>
+      <c r="B201" s="66"/>
       <c r="C201" s="33" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="40"/>
-      <c r="B202" s="40"/>
+      <c r="A202" s="66"/>
+      <c r="B202" s="66"/>
       <c r="C202" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="40"/>
-      <c r="B203" s="40"/>
+      <c r="A203" s="66"/>
+      <c r="B203" s="66"/>
       <c r="C203" s="35" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A204" s="41"/>
-      <c r="B204" s="41"/>
+    <row r="204" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A204" s="67"/>
+      <c r="B204" s="67"/>
       <c r="C204" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="42" t="s">
+      <c r="A205" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="B205" s="42" t="s">
+      <c r="B205" s="68" t="s">
         <v>279</v>
       </c>
       <c r="C205" s="6">
@@ -11453,94 +14003,94 @@
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="43"/>
-      <c r="B206" s="43"/>
+      <c r="A206" s="69"/>
+      <c r="B206" s="69"/>
       <c r="C206" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="43"/>
-      <c r="B207" s="43"/>
+      <c r="A207" s="69"/>
+      <c r="B207" s="69"/>
       <c r="C207" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="43"/>
-      <c r="B208" s="43"/>
+      <c r="A208" s="69"/>
+      <c r="B208" s="69"/>
       <c r="C208" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="43"/>
-      <c r="B209" s="43"/>
+      <c r="A209" s="69"/>
+      <c r="B209" s="69"/>
       <c r="C209" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="43"/>
-      <c r="B210" s="43"/>
+      <c r="A210" s="69"/>
+      <c r="B210" s="69"/>
       <c r="C210" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="43"/>
-      <c r="B211" s="43"/>
+      <c r="A211" s="69"/>
+      <c r="B211" s="69"/>
       <c r="C211" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="43"/>
-      <c r="B212" s="43"/>
+      <c r="A212" s="69"/>
+      <c r="B212" s="69"/>
       <c r="C212" s="16" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="43"/>
-      <c r="B213" s="43"/>
+      <c r="A213" s="69"/>
+      <c r="B213" s="69"/>
       <c r="C213" s="9" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="43"/>
-      <c r="B214" s="43"/>
+      <c r="A214" s="69"/>
+      <c r="B214" s="69"/>
       <c r="C214" s="16" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="43"/>
-      <c r="B215" s="43"/>
+      <c r="A215" s="69"/>
+      <c r="B215" s="69"/>
       <c r="C215" s="9" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="43"/>
-      <c r="B216" s="43"/>
+      <c r="A216" s="69"/>
+      <c r="B216" s="69"/>
       <c r="C216" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A217" s="44"/>
-      <c r="B217" s="44"/>
+    <row r="217" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A217" s="70"/>
+      <c r="B217" s="70"/>
       <c r="C217" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="39" t="s">
+      <c r="A218" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="B218" s="39" t="s">
+      <c r="B218" s="65" t="s">
         <v>287</v>
       </c>
       <c r="C218" s="11">
@@ -11548,66 +14098,66 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="40"/>
-      <c r="B219" s="40"/>
+      <c r="A219" s="66"/>
+      <c r="B219" s="66"/>
       <c r="C219" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="40"/>
-      <c r="B220" s="40"/>
+      <c r="A220" s="66"/>
+      <c r="B220" s="66"/>
       <c r="C220" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="40"/>
-      <c r="B221" s="40"/>
+      <c r="A221" s="66"/>
+      <c r="B221" s="66"/>
       <c r="C221" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="40"/>
-      <c r="B222" s="40"/>
+      <c r="A222" s="66"/>
+      <c r="B222" s="66"/>
       <c r="C222" s="33" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="40"/>
-      <c r="B223" s="40"/>
+      <c r="A223" s="66"/>
+      <c r="B223" s="66"/>
       <c r="C223" s="14" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="40"/>
-      <c r="B224" s="40"/>
+      <c r="A224" s="66"/>
+      <c r="B224" s="66"/>
       <c r="C224" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="40"/>
-      <c r="B225" s="40"/>
+      <c r="A225" s="66"/>
+      <c r="B225" s="66"/>
       <c r="C225" s="14" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A226" s="41"/>
-      <c r="B226" s="41"/>
+    <row r="226" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A226" s="67"/>
+      <c r="B226" s="67"/>
       <c r="C226" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="42" t="s">
+      <c r="A227" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="B227" s="42" t="s">
+      <c r="B227" s="68" t="s">
         <v>293</v>
       </c>
       <c r="C227" s="6">
@@ -11615,133 +14165,133 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="43"/>
-      <c r="B228" s="43"/>
+      <c r="A228" s="69"/>
+      <c r="B228" s="69"/>
       <c r="C228" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="43"/>
-      <c r="B229" s="43"/>
+      <c r="A229" s="69"/>
+      <c r="B229" s="69"/>
       <c r="C229" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="43"/>
-      <c r="B230" s="43"/>
+      <c r="A230" s="69"/>
+      <c r="B230" s="69"/>
       <c r="C230" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="43"/>
-      <c r="B231" s="43"/>
+      <c r="A231" s="69"/>
+      <c r="B231" s="69"/>
       <c r="C231" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="43"/>
-      <c r="B232" s="43"/>
+      <c r="A232" s="69"/>
+      <c r="B232" s="69"/>
       <c r="C232" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="43"/>
-      <c r="B233" s="43"/>
+      <c r="A233" s="69"/>
+      <c r="B233" s="69"/>
       <c r="C233" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="43"/>
-      <c r="B234" s="43"/>
+      <c r="A234" s="69"/>
+      <c r="B234" s="69"/>
       <c r="C234" s="7">
         <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="43"/>
-      <c r="B235" s="43"/>
+      <c r="A235" s="69"/>
+      <c r="B235" s="69"/>
       <c r="C235" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="43"/>
-      <c r="B236" s="43"/>
+      <c r="A236" s="69"/>
+      <c r="B236" s="69"/>
       <c r="C236" s="32" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="43"/>
-      <c r="B237" s="43"/>
+      <c r="A237" s="69"/>
+      <c r="B237" s="69"/>
       <c r="C237" s="32" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="43"/>
-      <c r="B238" s="43"/>
+      <c r="A238" s="69"/>
+      <c r="B238" s="69"/>
       <c r="C238" s="8" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="43"/>
-      <c r="B239" s="43"/>
+      <c r="A239" s="69"/>
+      <c r="B239" s="69"/>
       <c r="C239" s="8" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="43"/>
-      <c r="B240" s="43"/>
+      <c r="A240" s="69"/>
+      <c r="B240" s="69"/>
       <c r="C240" s="36" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="43"/>
-      <c r="B241" s="43"/>
+      <c r="A241" s="69"/>
+      <c r="B241" s="69"/>
       <c r="C241" s="9" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="43"/>
-      <c r="B242" s="43"/>
+      <c r="A242" s="69"/>
+      <c r="B242" s="69"/>
       <c r="C242" s="9" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="43"/>
-      <c r="B243" s="43"/>
+      <c r="A243" s="69"/>
+      <c r="B243" s="69"/>
       <c r="C243" s="9" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="43"/>
-      <c r="B244" s="43"/>
+      <c r="A244" s="69"/>
+      <c r="B244" s="69"/>
       <c r="C244" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A245" s="44"/>
-      <c r="B245" s="44"/>
+    <row r="245" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A245" s="70"/>
+      <c r="B245" s="70"/>
       <c r="C245" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="66">
-      <c r="A246" s="39" t="s">
+    <row r="246" spans="1:3" ht="61.2">
+      <c r="A246" s="65" t="s">
         <v>303</v>
       </c>
       <c r="B246" s="25" t="s">
@@ -11751,8 +14301,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="66">
-      <c r="A247" s="40"/>
+    <row r="247" spans="1:3" ht="61.2">
+      <c r="A247" s="66"/>
       <c r="B247" s="26" t="s">
         <v>305</v>
       </c>
@@ -11760,8 +14310,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="33">
-      <c r="A248" s="40"/>
+    <row r="248" spans="1:3" ht="30.6">
+      <c r="A248" s="66"/>
       <c r="B248" s="26" t="s">
         <v>306</v>
       </c>
@@ -11769,8 +14319,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="33">
-      <c r="A249" s="40"/>
+    <row r="249" spans="1:3" ht="30.6">
+      <c r="A249" s="66"/>
       <c r="B249" s="26" t="s">
         <v>307</v>
       </c>
@@ -11778,128 +14328,128 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="16.5">
-      <c r="A250" s="40"/>
+    <row r="250" spans="1:3" ht="15.3">
+      <c r="A250" s="66"/>
       <c r="B250" s="26"/>
       <c r="C250" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="16.5">
-      <c r="A251" s="40"/>
+    <row r="251" spans="1:3" ht="15.3">
+      <c r="A251" s="66"/>
       <c r="B251" s="26"/>
       <c r="C251" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="16.5">
-      <c r="A252" s="40"/>
+    <row r="252" spans="1:3" ht="15.3">
+      <c r="A252" s="66"/>
       <c r="B252" s="26"/>
       <c r="C252" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="16.5">
-      <c r="A253" s="40"/>
+    <row r="253" spans="1:3" ht="15.3">
+      <c r="A253" s="66"/>
       <c r="B253" s="26"/>
       <c r="C253" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="16.5">
-      <c r="A254" s="40"/>
+    <row r="254" spans="1:3" ht="15.3">
+      <c r="A254" s="66"/>
       <c r="B254" s="26"/>
       <c r="C254" s="14" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="16.5">
-      <c r="A255" s="40"/>
+    <row r="255" spans="1:3" ht="15.3">
+      <c r="A255" s="66"/>
       <c r="B255" s="26"/>
       <c r="C255" s="37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="16.5">
-      <c r="A256" s="40"/>
+    <row r="256" spans="1:3" ht="15.3">
+      <c r="A256" s="66"/>
       <c r="B256" s="26"/>
       <c r="C256" s="38"/>
     </row>
-    <row r="257" spans="1:3" ht="16.5">
-      <c r="A257" s="40"/>
+    <row r="257" spans="1:3" ht="15.3">
+      <c r="A257" s="66"/>
       <c r="B257" s="26"/>
       <c r="C257" s="26" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="16.5">
-      <c r="A258" s="40"/>
+    <row r="258" spans="1:3" ht="15.3">
+      <c r="A258" s="66"/>
       <c r="B258" s="26"/>
       <c r="C258" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="16.5">
-      <c r="A259" s="40"/>
+    <row r="259" spans="1:3" ht="15.3">
+      <c r="A259" s="66"/>
       <c r="B259" s="26"/>
       <c r="C259" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="16.5">
-      <c r="A260" s="40"/>
+    <row r="260" spans="1:3" ht="15.3">
+      <c r="A260" s="66"/>
       <c r="B260" s="26"/>
       <c r="C260" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="16.5">
-      <c r="A261" s="40"/>
+    <row r="261" spans="1:3" ht="15.3">
+      <c r="A261" s="66"/>
       <c r="B261" s="26"/>
       <c r="C261" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="16.5">
-      <c r="A262" s="40"/>
+    <row r="262" spans="1:3" ht="15.3">
+      <c r="A262" s="66"/>
       <c r="B262" s="26"/>
       <c r="C262" s="33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="16.5">
-      <c r="A263" s="40"/>
+    <row r="263" spans="1:3" ht="15.3">
+      <c r="A263" s="66"/>
       <c r="B263" s="26"/>
       <c r="C263" s="14" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="16.5">
-      <c r="A264" s="40"/>
+    <row r="264" spans="1:3" ht="15.3">
+      <c r="A264" s="66"/>
       <c r="B264" s="26"/>
       <c r="C264" s="14" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="16.5">
-      <c r="A265" s="40"/>
+    <row r="265" spans="1:3" ht="15.3">
+      <c r="A265" s="66"/>
       <c r="B265" s="26"/>
       <c r="C265" s="14" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A266" s="41"/>
+    <row r="266" spans="1:3" ht="15.6" thickBot="1">
+      <c r="A266" s="67"/>
       <c r="B266" s="27"/>
       <c r="C266" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A267" s="42" t="s">
+      <c r="A267" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="B267" s="42" t="s">
+      <c r="B267" s="68" t="s">
         <v>315</v>
       </c>
       <c r="C267" s="6">
@@ -11907,129 +14457,504 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="43"/>
-      <c r="B268" s="43"/>
+      <c r="A268" s="69"/>
+      <c r="B268" s="69"/>
       <c r="C268" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="43"/>
-      <c r="B269" s="43"/>
+      <c r="A269" s="69"/>
+      <c r="B269" s="69"/>
       <c r="C269" s="32" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A270" s="44"/>
-      <c r="B270" s="44"/>
+    <row r="270" spans="1:3" ht="14.7" thickBot="1">
+      <c r="A270" s="70"/>
+      <c r="B270" s="70"/>
       <c r="C270" s="21" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B271" s="66" t="s">
+      <c r="B271" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="C271" s="64" t="s">
+      <c r="C271" s="59" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B272" s="67"/>
-      <c r="C272" s="65"/>
-    </row>
-    <row r="273" spans="2:3">
-      <c r="B273" s="67"/>
-      <c r="C273" s="65"/>
-    </row>
-    <row r="274" spans="2:3" ht="30" customHeight="1">
-      <c r="B274" s="69" t="s">
+      <c r="B272" s="62"/>
+      <c r="C272" s="60"/>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="B273" s="62"/>
+      <c r="C273" s="60"/>
+    </row>
+    <row r="274" spans="1:3" ht="30" customHeight="1">
+      <c r="B274" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="C274" s="65"/>
-    </row>
-    <row r="275" spans="2:3">
-      <c r="B275" s="69"/>
-      <c r="C275" s="65"/>
-    </row>
-    <row r="276" spans="2:3" ht="30" customHeight="1">
-      <c r="B276" s="70" t="s">
+      <c r="C274" s="60"/>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="B275" s="63"/>
+      <c r="C275" s="60"/>
+    </row>
+    <row r="276" spans="1:3" ht="30" customHeight="1">
+      <c r="B276" s="64" t="s">
         <v>469</v>
       </c>
-      <c r="C276" s="65"/>
-    </row>
-    <row r="277" spans="2:3">
-      <c r="B277" s="70"/>
-      <c r="C277" s="65"/>
-    </row>
-    <row r="278" spans="2:3" ht="30">
-      <c r="B278" s="68" t="s">
+      <c r="C276" s="60"/>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="B277" s="64"/>
+      <c r="C277" s="60"/>
+    </row>
+    <row r="278" spans="1:3" ht="28.8">
+      <c r="B278" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="C278" s="65"/>
-    </row>
-    <row r="279" spans="2:3" ht="30">
-      <c r="B279" s="68" t="s">
+      <c r="C278" s="60"/>
+    </row>
+    <row r="279" spans="1:3" ht="28.8">
+      <c r="B279" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="C279" s="65"/>
-    </row>
-    <row r="280" spans="2:3" ht="30">
-      <c r="B280" s="68" t="s">
+      <c r="C279" s="60"/>
+    </row>
+    <row r="280" spans="1:3" ht="28.8">
+      <c r="B280" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="C280" s="65"/>
+      <c r="C280" s="60"/>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="B282" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C282" s="71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="83" t="s">
+        <v>473</v>
+      </c>
+      <c r="B283" s="83" t="s">
+        <v>474</v>
+      </c>
+      <c r="C283" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="83"/>
+      <c r="B284" s="83"/>
+      <c r="C284" s="73" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="83"/>
+      <c r="B285" s="83"/>
+      <c r="C285" s="74" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="83"/>
+      <c r="B286" s="83"/>
+      <c r="C286" s="74" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="83"/>
+      <c r="B287" s="83"/>
+      <c r="C287" s="74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="83"/>
+      <c r="B288" s="83"/>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="83"/>
+      <c r="B289" s="83"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="83"/>
+      <c r="B290" s="83"/>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="83"/>
+      <c r="B291" s="83"/>
+      <c r="C291" s="75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="84" t="s">
+        <v>479</v>
+      </c>
+      <c r="B292" s="84" t="s">
+        <v>508</v>
+      </c>
+      <c r="C292" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="84"/>
+      <c r="B293" s="84"/>
+      <c r="C293" s="77" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="84"/>
+      <c r="B294" s="84"/>
+      <c r="C294" s="77" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="84"/>
+      <c r="B295" s="84"/>
+      <c r="C295" s="78" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="84"/>
+      <c r="B296" s="84"/>
+      <c r="C296" s="79" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="84"/>
+      <c r="B297" s="84"/>
+      <c r="C297" s="80" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="84"/>
+      <c r="B298" s="84"/>
+      <c r="C298" s="79" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="84"/>
+      <c r="B299" s="84"/>
+      <c r="C299" s="79" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="84"/>
+      <c r="B300" s="84"/>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="84"/>
+      <c r="B301" s="84"/>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="84"/>
+      <c r="B302" s="84"/>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="84"/>
+      <c r="B303" s="84"/>
+      <c r="C303" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="83" t="s">
+        <v>487</v>
+      </c>
+      <c r="B304" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="C304" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="83"/>
+      <c r="B305" s="83"/>
+      <c r="C305" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="83"/>
+      <c r="B306" s="83"/>
+      <c r="C306" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="83"/>
+      <c r="B307" s="83"/>
+      <c r="C307" s="72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="83"/>
+      <c r="B308" s="83"/>
+      <c r="C308" s="73" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="83"/>
+      <c r="B309" s="83"/>
+      <c r="C309" s="73" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="83"/>
+      <c r="B310" s="83"/>
+      <c r="C310" s="74" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="83"/>
+      <c r="B311" s="83"/>
+      <c r="C311" s="74" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="83"/>
+      <c r="B312" s="83"/>
+      <c r="C312" s="75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="84" t="s">
+        <v>491</v>
+      </c>
+      <c r="B313" s="84" t="s">
+        <v>492</v>
+      </c>
+      <c r="C313" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="84"/>
+      <c r="B314" s="84"/>
+      <c r="C314" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="84"/>
+      <c r="B315" s="84"/>
+      <c r="C315" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="84"/>
+      <c r="B316" s="84"/>
+      <c r="C316" s="76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="84"/>
+      <c r="B317" s="84"/>
+      <c r="C317" s="76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="84"/>
+      <c r="B318" s="84"/>
+      <c r="C318" s="76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="84"/>
+      <c r="B319" s="84"/>
+      <c r="C319" s="77" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="84"/>
+      <c r="B320" s="84"/>
+      <c r="C320" s="78" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="84"/>
+      <c r="B321" s="84"/>
+      <c r="C321" s="78" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="84"/>
+      <c r="B322" s="84"/>
+      <c r="C322" s="79" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="84"/>
+      <c r="B323" s="84"/>
+      <c r="C323" s="79" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="84"/>
+      <c r="B324" s="84"/>
+      <c r="C324" s="78" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="84"/>
+      <c r="B325" s="84"/>
+      <c r="C325" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="83" t="s">
+        <v>499</v>
+      </c>
+      <c r="B326" s="83" t="s">
+        <v>500</v>
+      </c>
+      <c r="C326" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="83"/>
+      <c r="B327" s="83"/>
+      <c r="C327" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="83"/>
+      <c r="B328" s="83"/>
+      <c r="C328" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="83"/>
+      <c r="B329" s="83"/>
+      <c r="C329" s="72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="83"/>
+      <c r="B330" s="83"/>
+      <c r="C330" s="72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="83"/>
+      <c r="B331" s="83"/>
+      <c r="C331" s="72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="83"/>
+      <c r="B332" s="83"/>
+      <c r="C332" s="72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="83"/>
+      <c r="B333" s="83"/>
+      <c r="C333" s="73" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="83"/>
+      <c r="B334" s="83"/>
+      <c r="C334" s="73" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="83"/>
+      <c r="B335" s="83"/>
+      <c r="C335" s="74" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="83"/>
+      <c r="B336" s="83"/>
+      <c r="C336" s="74" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="83"/>
+      <c r="B337" s="83"/>
+      <c r="C337" s="82" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="83"/>
+      <c r="B338" s="83"/>
+      <c r="C338" s="82" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="83"/>
+      <c r="B339" s="83"/>
+      <c r="C339" s="82" t="s">
+        <v>507</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C271:C280"/>
-    <mergeCell ref="B271:B273"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="B163:B168"/>
-    <mergeCell ref="A140:A152"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A81:A93"/>
-    <mergeCell ref="B81:B93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="B171:B175"/>
-    <mergeCell ref="A176:A182"/>
-    <mergeCell ref="B176:B182"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="A186:A190"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="A191:A197"/>
-    <mergeCell ref="B191:B197"/>
+  <mergeCells count="68">
+    <mergeCell ref="A313:A325"/>
+    <mergeCell ref="B313:B325"/>
+    <mergeCell ref="A326:A339"/>
+    <mergeCell ref="B326:B339"/>
+    <mergeCell ref="A283:A291"/>
+    <mergeCell ref="B283:B291"/>
+    <mergeCell ref="A292:A303"/>
+    <mergeCell ref="B292:B303"/>
+    <mergeCell ref="A304:A312"/>
+    <mergeCell ref="B304:B312"/>
     <mergeCell ref="A198:A204"/>
     <mergeCell ref="B198:B204"/>
     <mergeCell ref="A246:A266"/>
@@ -12041,6 +14966,53 @@
     <mergeCell ref="B218:B226"/>
     <mergeCell ref="A227:A245"/>
     <mergeCell ref="B227:B245"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A81:A93"/>
+    <mergeCell ref="B81:B93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="A140:A152"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="B153:B157"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="C271:C280"/>
+    <mergeCell ref="B271:B273"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="B163:B168"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="B171:B175"/>
+    <mergeCell ref="A176:A182"/>
+    <mergeCell ref="B176:B182"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="A186:A190"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="A191:A197"/>
+    <mergeCell ref="B191:B197"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12053,517 +15025,517 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF60E07-8861-4537-94EE-F88B7EF9EB38}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G35" activeCellId="1" sqref="D43 G35"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13.578125" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="13.5703125" style="52"/>
+    <col min="1" max="1" width="19" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.41796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.15625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.68359375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="13.578125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="49" customFormat="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:4" s="43" customFormat="1">
+      <c r="A1" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="50" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="51" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="51" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="51" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="51" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="51" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="51" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="51" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="45" t="s">
         <v>349</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="51" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="51" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="44" t="s">
         <v>356</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="51" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="45" t="s">
         <v>361</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="51" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="51" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="45" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="51" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="51" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="45" t="s">
         <v>376</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="51" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A17" s="58" t="s">
+    <row r="17" spans="1:4" ht="14.7" thickBot="1">
+      <c r="A17" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="53" t="s">
         <v>379</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="53" t="s">
         <v>380</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="54" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-    </row>
-    <row r="19" spans="1:4" ht="30">
-      <c r="A19" s="61" t="s">
+    <row r="18" spans="1:4" ht="14.7" thickBot="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+    </row>
+    <row r="19" spans="1:4" ht="28.8">
+      <c r="A19" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="57" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
-      <c r="A20" s="50" t="s">
+    <row r="20" spans="1:4" ht="28.8">
+      <c r="A20" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="45" t="s">
         <v>385</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="51" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:4" ht="28.8">
+      <c r="A21" s="44" t="s">
         <v>388</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="51" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
-      <c r="A22" s="50" t="s">
+    <row r="22" spans="1:4" ht="28.8">
+      <c r="A22" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="45" t="s">
         <v>393</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="51" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:4" ht="28.8">
+      <c r="A23" s="44" t="s">
         <v>395</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="45" t="s">
         <v>397</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="51" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30">
-      <c r="A24" s="50" t="s">
+    <row r="24" spans="1:4" ht="28.8">
+      <c r="A24" s="44" t="s">
         <v>344</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="51" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30">
-      <c r="A25" s="50" t="s">
+    <row r="25" spans="1:4" ht="28.8">
+      <c r="A25" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="45" t="s">
         <v>403</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="45" t="s">
         <v>404</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="51" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:4" ht="28.8">
+      <c r="A26" s="44" t="s">
         <v>406</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="51" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:4" ht="28.8">
+      <c r="A27" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="45" t="s">
         <v>411</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="51" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="45" t="s">
         <v>415</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="51" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30">
-      <c r="A29" s="50" t="s">
+    <row r="29" spans="1:4" ht="28.8">
+      <c r="A29" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="45" t="s">
         <v>419</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="45" t="s">
         <v>420</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="51" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30">
-      <c r="A30" s="50" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="45" t="s">
         <v>424</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="51" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="30">
-      <c r="A31" s="50" t="s">
+    <row r="31" spans="1:4" ht="28.8">
+      <c r="A31" s="44" t="s">
         <v>426</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="45" t="s">
         <v>427</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="51" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30">
-      <c r="A32" s="50" t="s">
+    <row r="32" spans="1:4" ht="28.8">
+      <c r="A32" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="51" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30">
-      <c r="A33" s="50" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="51" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
-      <c r="A34" s="50" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="44" t="s">
         <v>438</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="45" t="s">
         <v>439</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="45" t="s">
         <v>440</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="51" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30.75" thickBot="1">
-      <c r="A35" s="58" t="s">
+    <row r="35" spans="1:4" ht="29.1" thickBot="1">
+      <c r="A35" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="54" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="39" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45">
-      <c r="A40" s="46" t="s">
+    <row r="40" spans="1:4" ht="28.8">
+      <c r="A40" s="40" t="s">
         <v>450</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -12576,8 +15548,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45">
-      <c r="A41" s="46" t="s">
+    <row r="41" spans="1:4" ht="43.2">
+      <c r="A41" s="40" t="s">
         <v>454</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -12590,8 +15562,8 @@
         <v>457</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="45">
-      <c r="A42" s="46" t="s">
+    <row r="42" spans="1:4" ht="43.2">
+      <c r="A42" s="40" t="s">
         <v>458</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -12604,8 +15576,8 @@
         <v>461</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45">
-      <c r="A43" s="46" t="s">
+    <row r="43" spans="1:4" ht="43.2">
+      <c r="A43" s="40" t="s">
         <v>462</v>
       </c>
       <c r="B43" s="3" t="s">
